--- a/biology/Botanique/Orobanche_grenieri/Orobanche_grenieri.xlsx
+++ b/biology/Botanique/Orobanche_grenieri/Orobanche_grenieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orobanche de Grenier
 Orobanche grenieri, l'Orobanche de Grenier, est une plante herbacée de la famille des Orobanchacées. C'est une espèce parasite dépourvue de chlorophylle.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corolle à base blanchâtre passant progressivement à l'apex violet clair veiné de violet foncé.
 </t>
@@ -543,7 +557,9 @@
           <t>Parasitisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parasite sur Astéracées, surtout Lactuca perennis.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses steppiques.
 </t>
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France : Provence, Briançonnais, Languedoc. De 0 à 1 400 m. d'altitude.
 </t>
@@ -636,10 +656,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Orobanche cernua auct. gall. plur., p. p., non L.[2]
-Orobanche lactucae Arv. Touv.[2]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Orobanche cernua auct. gall. plur., p. p., non L.
+Orobanche lactucae Arv. Touv.</t>
         </is>
       </c>
     </row>
